--- a/hello.xlsx
+++ b/hello.xlsx
@@ -79,75 +79,2201 @@
   <c:chart>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:radarChart>
+        <c:radarStyle val="filled"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:noFill/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:noFill/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:noFill/>
-            </c:spPr>
-          </c:dPt>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:dLbls/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$361</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="360"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B2:$B$5</c:f>
+              <c:f>Sheet1!$E$2:$E$361</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="360"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="359">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:firstSliceAng val="90"/>
-      </c:pieChart>
+      </c:radarChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -165,13 +2291,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -194,15 +2320,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -509,13 +2635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +2652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>60</v>
       </c>
@@ -537,8 +2663,15 @@
         <f>$C$3 &amp; "% Share"</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>60</v>
       </c>
@@ -547,18 +2680,32 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>60</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>60</v>
       </c>
@@ -566,15 +2713,3222 @@
         <f>360-SUM(B2:B4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>60</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5">
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5">
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5">
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5">
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5">
+      <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5">
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:5">
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:5">
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:5">
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:5">
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:5">
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:5">
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:5">
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:5">
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5">
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5">
+      <c r="D66">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:5">
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:5">
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:5">
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:5">
+      <c r="D70">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:5">
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:5">
+      <c r="D72">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:5">
+      <c r="D73">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:5">
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5">
+      <c r="D75">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:5">
+      <c r="D76">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5">
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5">
+      <c r="D78">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5">
+      <c r="D79">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:5">
+      <c r="D80">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:5">
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5">
+      <c r="D82">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5">
+      <c r="D83">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5">
+      <c r="D84">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5">
+      <c r="D85">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5">
+      <c r="D86">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5">
+      <c r="D87">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5">
+      <c r="D88">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5">
+      <c r="D89">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5">
+      <c r="D90">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5">
+      <c r="D91">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5">
+      <c r="D92">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5">
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5">
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5">
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5">
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5">
+      <c r="D97">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5">
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5">
+      <c r="D99">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5">
+      <c r="D100">
+        <v>98</v>
+      </c>
+      <c r="E100">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5">
+      <c r="D101">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5">
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5">
+      <c r="D103">
+        <v>101</v>
+      </c>
+      <c r="E103">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5">
+      <c r="D104">
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5">
+      <c r="D105">
+        <v>103</v>
+      </c>
+      <c r="E105">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5">
+      <c r="D106">
+        <v>104</v>
+      </c>
+      <c r="E106">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5">
+      <c r="D107">
+        <v>105</v>
+      </c>
+      <c r="E107">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5">
+      <c r="D108">
+        <v>106</v>
+      </c>
+      <c r="E108">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5">
+      <c r="D109">
+        <v>107</v>
+      </c>
+      <c r="E109">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5">
+      <c r="D110">
+        <v>108</v>
+      </c>
+      <c r="E110">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5">
+      <c r="D111">
+        <v>109</v>
+      </c>
+      <c r="E111">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:5">
+      <c r="D112">
+        <v>110</v>
+      </c>
+      <c r="E112">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5">
+      <c r="D113">
+        <v>111</v>
+      </c>
+      <c r="E113">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5">
+      <c r="D114">
+        <v>112</v>
+      </c>
+      <c r="E114">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5">
+      <c r="D115">
+        <v>113</v>
+      </c>
+      <c r="E115">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5">
+      <c r="D116">
+        <v>114</v>
+      </c>
+      <c r="E116">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="D117">
+        <v>115</v>
+      </c>
+      <c r="E117">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5">
+      <c r="D118">
+        <v>116</v>
+      </c>
+      <c r="E118">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5">
+      <c r="D119">
+        <v>117</v>
+      </c>
+      <c r="E119">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5">
+      <c r="D120">
+        <v>118</v>
+      </c>
+      <c r="E120">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5">
+      <c r="D121">
+        <v>119</v>
+      </c>
+      <c r="E121">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5">
+      <c r="D122">
+        <v>120</v>
+      </c>
+      <c r="E122">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5">
+      <c r="D123">
+        <v>121</v>
+      </c>
+      <c r="E123">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5">
+      <c r="D124">
+        <v>122</v>
+      </c>
+      <c r="E124">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5">
+      <c r="D125">
+        <v>123</v>
+      </c>
+      <c r="E125">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5">
+      <c r="D126">
+        <v>124</v>
+      </c>
+      <c r="E126">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5">
+      <c r="D127">
+        <v>125</v>
+      </c>
+      <c r="E127">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5">
+      <c r="D128">
+        <v>126</v>
+      </c>
+      <c r="E128">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129">
+        <v>127</v>
+      </c>
+      <c r="E129">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5">
+      <c r="D130">
+        <v>128</v>
+      </c>
+      <c r="E130">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5">
+      <c r="D131">
+        <v>129</v>
+      </c>
+      <c r="E131">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="4:5">
+      <c r="D132">
+        <v>130</v>
+      </c>
+      <c r="E132">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5">
+      <c r="D133">
+        <v>131</v>
+      </c>
+      <c r="E133">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5">
+      <c r="D134">
+        <v>132</v>
+      </c>
+      <c r="E134">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5">
+      <c r="D135">
+        <v>133</v>
+      </c>
+      <c r="E135">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="4:5">
+      <c r="D136">
+        <v>134</v>
+      </c>
+      <c r="E136">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137">
+        <v>135</v>
+      </c>
+      <c r="E137">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="D138">
+        <v>136</v>
+      </c>
+      <c r="E138">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="D139">
+        <v>137</v>
+      </c>
+      <c r="E139">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="D140">
+        <v>138</v>
+      </c>
+      <c r="E140">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="D141">
+        <v>139</v>
+      </c>
+      <c r="E141">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5">
+      <c r="D142">
+        <v>140</v>
+      </c>
+      <c r="E142">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="4:5">
+      <c r="D143">
+        <v>141</v>
+      </c>
+      <c r="E143">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="D144">
+        <v>142</v>
+      </c>
+      <c r="E144">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5">
+      <c r="D145">
+        <v>143</v>
+      </c>
+      <c r="E145">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5">
+      <c r="D146">
+        <v>144</v>
+      </c>
+      <c r="E146">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5">
+      <c r="D147">
+        <v>145</v>
+      </c>
+      <c r="E147">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5">
+      <c r="D148">
+        <v>146</v>
+      </c>
+      <c r="E148">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5">
+      <c r="D149">
+        <v>147</v>
+      </c>
+      <c r="E149">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5">
+      <c r="D150">
+        <v>148</v>
+      </c>
+      <c r="E150">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5">
+      <c r="D151">
+        <v>149</v>
+      </c>
+      <c r="E151">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5">
+      <c r="D152">
+        <v>150</v>
+      </c>
+      <c r="E152">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5">
+      <c r="D153">
+        <v>151</v>
+      </c>
+      <c r="E153">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="D154">
+        <v>152</v>
+      </c>
+      <c r="E154">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5">
+      <c r="D155">
+        <v>153</v>
+      </c>
+      <c r="E155">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5">
+      <c r="D156">
+        <v>154</v>
+      </c>
+      <c r="E156">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5">
+      <c r="D157">
+        <v>155</v>
+      </c>
+      <c r="E157">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5">
+      <c r="D158">
+        <v>156</v>
+      </c>
+      <c r="E158">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5">
+      <c r="D159">
+        <v>157</v>
+      </c>
+      <c r="E159">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5">
+      <c r="D160">
+        <v>158</v>
+      </c>
+      <c r="E160">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="D161">
+        <v>159</v>
+      </c>
+      <c r="E161">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5">
+      <c r="D162">
+        <v>160</v>
+      </c>
+      <c r="E162">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163">
+        <v>161</v>
+      </c>
+      <c r="E163">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="D164">
+        <v>162</v>
+      </c>
+      <c r="E164">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="D165">
+        <v>163</v>
+      </c>
+      <c r="E165">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="D166">
+        <v>164</v>
+      </c>
+      <c r="E166">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5">
+      <c r="D167">
+        <v>165</v>
+      </c>
+      <c r="E167">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5">
+      <c r="D168">
+        <v>166</v>
+      </c>
+      <c r="E168">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5">
+      <c r="D169">
+        <v>167</v>
+      </c>
+      <c r="E169">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5">
+      <c r="D170">
+        <v>168</v>
+      </c>
+      <c r="E170">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5">
+      <c r="D171">
+        <v>169</v>
+      </c>
+      <c r="E171">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5">
+      <c r="D172">
+        <v>170</v>
+      </c>
+      <c r="E172">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5">
+      <c r="D173">
+        <v>171</v>
+      </c>
+      <c r="E173">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5">
+      <c r="D174">
+        <v>172</v>
+      </c>
+      <c r="E174">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5">
+      <c r="D175">
+        <v>173</v>
+      </c>
+      <c r="E175">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5">
+      <c r="D176">
+        <v>174</v>
+      </c>
+      <c r="E176">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5">
+      <c r="D177">
+        <v>175</v>
+      </c>
+      <c r="E177">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5">
+      <c r="D178">
+        <v>176</v>
+      </c>
+      <c r="E178">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5">
+      <c r="D179">
+        <v>177</v>
+      </c>
+      <c r="E179">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5">
+      <c r="D180">
+        <v>178</v>
+      </c>
+      <c r="E180">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5">
+      <c r="D181">
+        <v>179</v>
+      </c>
+      <c r="E181">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5">
+      <c r="D182">
+        <v>180</v>
+      </c>
+      <c r="E182">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5">
+      <c r="D183">
+        <v>181</v>
+      </c>
+      <c r="E183">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="4:5">
+      <c r="D184">
+        <v>182</v>
+      </c>
+      <c r="E184">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5">
+      <c r="D185">
+        <v>183</v>
+      </c>
+      <c r="E185">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5">
+      <c r="D186">
+        <v>184</v>
+      </c>
+      <c r="E186">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5">
+      <c r="D187">
+        <v>185</v>
+      </c>
+      <c r="E187">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="4:5">
+      <c r="D188">
+        <v>186</v>
+      </c>
+      <c r="E188">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5">
+      <c r="D189">
+        <v>187</v>
+      </c>
+      <c r="E189">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="4:5">
+      <c r="D190">
+        <v>188</v>
+      </c>
+      <c r="E190">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="4:5">
+      <c r="D191">
+        <v>189</v>
+      </c>
+      <c r="E191">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5">
+      <c r="D192">
+        <v>190</v>
+      </c>
+      <c r="E192">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5">
+      <c r="D193">
+        <v>191</v>
+      </c>
+      <c r="E193">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5">
+      <c r="D194">
+        <v>192</v>
+      </c>
+      <c r="E194">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5">
+      <c r="D195">
+        <v>193</v>
+      </c>
+      <c r="E195">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5">
+      <c r="D196">
+        <v>194</v>
+      </c>
+      <c r="E196">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5">
+      <c r="D197">
+        <v>195</v>
+      </c>
+      <c r="E197">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5">
+      <c r="D198">
+        <v>196</v>
+      </c>
+      <c r="E198">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5">
+      <c r="D199">
+        <v>197</v>
+      </c>
+      <c r="E199">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5">
+      <c r="D200">
+        <v>198</v>
+      </c>
+      <c r="E200">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5">
+      <c r="D201">
+        <v>199</v>
+      </c>
+      <c r="E201">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="4:5">
+      <c r="D202">
+        <v>200</v>
+      </c>
+      <c r="E202">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="4:5">
+      <c r="D203">
+        <v>201</v>
+      </c>
+      <c r="E203">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="4:5">
+      <c r="D204">
+        <v>202</v>
+      </c>
+      <c r="E204">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5">
+      <c r="D205">
+        <v>203</v>
+      </c>
+      <c r="E205">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5">
+      <c r="D206">
+        <v>204</v>
+      </c>
+      <c r="E206">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="4:5">
+      <c r="D207">
+        <v>205</v>
+      </c>
+      <c r="E207">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="4:5">
+      <c r="D208">
+        <v>206</v>
+      </c>
+      <c r="E208">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5">
+      <c r="D209">
+        <v>207</v>
+      </c>
+      <c r="E209">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5">
+      <c r="D210">
+        <v>208</v>
+      </c>
+      <c r="E210">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5">
+      <c r="D211">
+        <v>209</v>
+      </c>
+      <c r="E211">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5">
+      <c r="D212">
+        <v>210</v>
+      </c>
+      <c r="E212">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5">
+      <c r="D213">
+        <v>211</v>
+      </c>
+      <c r="E213">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5">
+      <c r="D214">
+        <v>212</v>
+      </c>
+      <c r="E214">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5">
+      <c r="D215">
+        <v>213</v>
+      </c>
+      <c r="E215">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5">
+      <c r="D216">
+        <v>214</v>
+      </c>
+      <c r="E216">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5">
+      <c r="D217">
+        <v>215</v>
+      </c>
+      <c r="E217">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="4:5">
+      <c r="D218">
+        <v>216</v>
+      </c>
+      <c r="E218">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="4:5">
+      <c r="D219">
+        <v>217</v>
+      </c>
+      <c r="E219">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="4:5">
+      <c r="D220">
+        <v>218</v>
+      </c>
+      <c r="E220">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="4:5">
+      <c r="D221">
+        <v>219</v>
+      </c>
+      <c r="E221">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="4:5">
+      <c r="D222">
+        <v>220</v>
+      </c>
+      <c r="E222">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="4:5">
+      <c r="D223">
+        <v>221</v>
+      </c>
+      <c r="E223">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="4:5">
+      <c r="D224">
+        <v>222</v>
+      </c>
+      <c r="E224">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="4:5">
+      <c r="D225">
+        <v>223</v>
+      </c>
+      <c r="E225">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="4:5">
+      <c r="D226">
+        <v>224</v>
+      </c>
+      <c r="E226">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="4:5">
+      <c r="D227">
+        <v>225</v>
+      </c>
+      <c r="E227">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="4:5">
+      <c r="D228">
+        <v>226</v>
+      </c>
+      <c r="E228">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="4:5">
+      <c r="D229">
+        <v>227</v>
+      </c>
+      <c r="E229">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="4:5">
+      <c r="D230">
+        <v>228</v>
+      </c>
+      <c r="E230">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="4:5">
+      <c r="D231">
+        <v>229</v>
+      </c>
+      <c r="E231">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="4:5">
+      <c r="D232">
+        <v>230</v>
+      </c>
+      <c r="E232">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="4:5">
+      <c r="D233">
+        <v>231</v>
+      </c>
+      <c r="E233">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="4:5">
+      <c r="D234">
+        <v>232</v>
+      </c>
+      <c r="E234">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="4:5">
+      <c r="D235">
+        <v>233</v>
+      </c>
+      <c r="E235">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="4:5">
+      <c r="D236">
+        <v>234</v>
+      </c>
+      <c r="E236">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="4:5">
+      <c r="D237">
+        <v>235</v>
+      </c>
+      <c r="E237">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="4:5">
+      <c r="D238">
+        <v>236</v>
+      </c>
+      <c r="E238">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="4:5">
+      <c r="D239">
+        <v>237</v>
+      </c>
+      <c r="E239">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="4:5">
+      <c r="D240">
+        <v>238</v>
+      </c>
+      <c r="E240">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5">
+      <c r="D241">
+        <v>239</v>
+      </c>
+      <c r="E241">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5">
+      <c r="D242">
+        <v>240</v>
+      </c>
+      <c r="E242">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="4:5">
+      <c r="D243">
+        <v>241</v>
+      </c>
+      <c r="E243">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="4:5">
+      <c r="D244">
+        <v>242</v>
+      </c>
+      <c r="E244">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="4:5">
+      <c r="D245">
+        <v>243</v>
+      </c>
+      <c r="E245">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="4:5">
+      <c r="D246">
+        <v>244</v>
+      </c>
+      <c r="E246">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="4:5">
+      <c r="D247">
+        <v>245</v>
+      </c>
+      <c r="E247">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="4:5">
+      <c r="D248">
+        <v>246</v>
+      </c>
+      <c r="E248">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="4:5">
+      <c r="D249">
+        <v>247</v>
+      </c>
+      <c r="E249">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="4:5">
+      <c r="D250">
+        <v>248</v>
+      </c>
+      <c r="E250">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="4:5">
+      <c r="D251">
+        <v>249</v>
+      </c>
+      <c r="E251">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="4:5">
+      <c r="D252">
+        <v>250</v>
+      </c>
+      <c r="E252">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="4:5">
+      <c r="D253">
+        <v>251</v>
+      </c>
+      <c r="E253">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="4:5">
+      <c r="D254">
+        <v>252</v>
+      </c>
+      <c r="E254">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="4:5">
+      <c r="D255">
+        <v>253</v>
+      </c>
+      <c r="E255">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="4:5">
+      <c r="D256">
+        <v>254</v>
+      </c>
+      <c r="E256">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="4:5">
+      <c r="D257">
+        <v>255</v>
+      </c>
+      <c r="E257">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="4:5">
+      <c r="D258">
+        <v>256</v>
+      </c>
+      <c r="E258">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="4:5">
+      <c r="D259">
+        <v>257</v>
+      </c>
+      <c r="E259">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="4:5">
+      <c r="D260">
+        <v>258</v>
+      </c>
+      <c r="E260">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="4:5">
+      <c r="D261">
+        <v>259</v>
+      </c>
+      <c r="E261">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="4:5">
+      <c r="D262">
+        <v>260</v>
+      </c>
+      <c r="E262">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="4:5">
+      <c r="D263">
+        <v>261</v>
+      </c>
+      <c r="E263">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="4:5">
+      <c r="D264">
+        <v>262</v>
+      </c>
+      <c r="E264">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="4:5">
+      <c r="D265">
+        <v>263</v>
+      </c>
+      <c r="E265">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="4:5">
+      <c r="D266">
+        <v>264</v>
+      </c>
+      <c r="E266">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="4:5">
+      <c r="D267">
+        <v>265</v>
+      </c>
+      <c r="E267">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="4:5">
+      <c r="D268">
+        <v>266</v>
+      </c>
+      <c r="E268">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="4:5">
+      <c r="D269">
+        <v>267</v>
+      </c>
+      <c r="E269">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="4:5">
+      <c r="D270">
+        <v>268</v>
+      </c>
+      <c r="E270">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="4:5">
+      <c r="D271">
+        <v>269</v>
+      </c>
+      <c r="E271">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="4:5">
+      <c r="D272">
+        <v>270</v>
+      </c>
+      <c r="E272">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="4:5">
+      <c r="D273">
+        <v>271</v>
+      </c>
+      <c r="E273">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="4:5">
+      <c r="D274">
+        <v>272</v>
+      </c>
+      <c r="E274">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="4:5">
+      <c r="D275">
+        <v>273</v>
+      </c>
+      <c r="E275">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="4:5">
+      <c r="D276">
+        <v>274</v>
+      </c>
+      <c r="E276">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="4:5">
+      <c r="D277">
+        <v>275</v>
+      </c>
+      <c r="E277">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="4:5">
+      <c r="D278">
+        <v>276</v>
+      </c>
+      <c r="E278">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="4:5">
+      <c r="D279">
+        <v>277</v>
+      </c>
+      <c r="E279">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="4:5">
+      <c r="D280">
+        <v>278</v>
+      </c>
+      <c r="E280">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="4:5">
+      <c r="D281">
+        <v>279</v>
+      </c>
+      <c r="E281">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="4:5">
+      <c r="D282">
+        <v>280</v>
+      </c>
+      <c r="E282">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="4:5">
+      <c r="D283">
+        <v>281</v>
+      </c>
+      <c r="E283">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="4:5">
+      <c r="D284">
+        <v>282</v>
+      </c>
+      <c r="E284">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="4:5">
+      <c r="D285">
+        <v>283</v>
+      </c>
+      <c r="E285">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="4:5">
+      <c r="D286">
+        <v>284</v>
+      </c>
+      <c r="E286">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="4:5">
+      <c r="D287">
+        <v>285</v>
+      </c>
+      <c r="E287">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="4:5">
+      <c r="D288">
+        <v>286</v>
+      </c>
+      <c r="E288">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="4:5">
+      <c r="D289">
+        <v>287</v>
+      </c>
+      <c r="E289">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="4:5">
+      <c r="D290">
+        <v>288</v>
+      </c>
+      <c r="E290">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="4:5">
+      <c r="D291">
+        <v>289</v>
+      </c>
+      <c r="E291">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="4:5">
+      <c r="D292">
+        <v>290</v>
+      </c>
+      <c r="E292">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="4:5">
+      <c r="D293">
+        <v>291</v>
+      </c>
+      <c r="E293">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="4:5">
+      <c r="D294">
+        <v>292</v>
+      </c>
+      <c r="E294">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="4:5">
+      <c r="D295">
+        <v>293</v>
+      </c>
+      <c r="E295">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="4:5">
+      <c r="D296">
+        <v>294</v>
+      </c>
+      <c r="E296">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="4:5">
+      <c r="D297">
+        <v>295</v>
+      </c>
+      <c r="E297">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="4:5">
+      <c r="D298">
+        <v>296</v>
+      </c>
+      <c r="E298">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="4:5">
+      <c r="D299">
+        <v>297</v>
+      </c>
+      <c r="E299">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="4:5">
+      <c r="D300">
+        <v>298</v>
+      </c>
+      <c r="E300">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="4:5">
+      <c r="D301">
+        <v>299</v>
+      </c>
+      <c r="E301">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="4:5">
+      <c r="D302">
+        <v>300</v>
+      </c>
+      <c r="E302">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="4:5">
+      <c r="D303">
+        <v>301</v>
+      </c>
+      <c r="E303">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="4:5">
+      <c r="D304">
+        <v>302</v>
+      </c>
+      <c r="E304">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="4:5">
+      <c r="D305">
+        <v>303</v>
+      </c>
+      <c r="E305">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="4:5">
+      <c r="D306">
+        <v>304</v>
+      </c>
+      <c r="E306">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="4:5">
+      <c r="D307">
+        <v>305</v>
+      </c>
+      <c r="E307">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="4:5">
+      <c r="D308">
+        <v>306</v>
+      </c>
+      <c r="E308">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="4:5">
+      <c r="D309">
+        <v>307</v>
+      </c>
+      <c r="E309">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="4:5">
+      <c r="D310">
+        <v>308</v>
+      </c>
+      <c r="E310">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="4:5">
+      <c r="D311">
+        <v>309</v>
+      </c>
+      <c r="E311">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="4:5">
+      <c r="D312">
+        <v>310</v>
+      </c>
+      <c r="E312">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="4:5">
+      <c r="D313">
+        <v>311</v>
+      </c>
+      <c r="E313">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="4:5">
+      <c r="D314">
+        <v>312</v>
+      </c>
+      <c r="E314">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="4:5">
+      <c r="D315">
+        <v>313</v>
+      </c>
+      <c r="E315">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="4:5">
+      <c r="D316">
+        <v>314</v>
+      </c>
+      <c r="E316">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="4:5">
+      <c r="D317">
+        <v>315</v>
+      </c>
+      <c r="E317">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="4:5">
+      <c r="D318">
+        <v>316</v>
+      </c>
+      <c r="E318">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="4:5">
+      <c r="D319">
+        <v>317</v>
+      </c>
+      <c r="E319">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="4:5">
+      <c r="D320">
+        <v>318</v>
+      </c>
+      <c r="E320">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="4:5">
+      <c r="D321">
+        <v>319</v>
+      </c>
+      <c r="E321">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="4:5">
+      <c r="D322">
+        <v>320</v>
+      </c>
+      <c r="E322">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="4:5">
+      <c r="D323">
+        <v>321</v>
+      </c>
+      <c r="E323">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="4:5">
+      <c r="D324">
+        <v>322</v>
+      </c>
+      <c r="E324">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="4:5">
+      <c r="D325">
+        <v>323</v>
+      </c>
+      <c r="E325">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="4:5">
+      <c r="D326">
+        <v>324</v>
+      </c>
+      <c r="E326">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="4:5">
+      <c r="D327">
+        <v>325</v>
+      </c>
+      <c r="E327">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="4:5">
+      <c r="D328">
+        <v>326</v>
+      </c>
+      <c r="E328">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="4:5">
+      <c r="D329">
+        <v>327</v>
+      </c>
+      <c r="E329">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="4:5">
+      <c r="D330">
+        <v>328</v>
+      </c>
+      <c r="E330">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="4:5">
+      <c r="D331">
+        <v>329</v>
+      </c>
+      <c r="E331">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="4:5">
+      <c r="D332">
+        <v>330</v>
+      </c>
+      <c r="E332">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="4:5">
+      <c r="D333">
+        <v>331</v>
+      </c>
+      <c r="E333">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="4:5">
+      <c r="D334">
+        <v>332</v>
+      </c>
+      <c r="E334">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="4:5">
+      <c r="D335">
+        <v>333</v>
+      </c>
+      <c r="E335">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="4:5">
+      <c r="D336">
+        <v>334</v>
+      </c>
+      <c r="E336">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="4:5">
+      <c r="D337">
+        <v>335</v>
+      </c>
+      <c r="E337">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="4:5">
+      <c r="D338">
+        <v>336</v>
+      </c>
+      <c r="E338">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="4:5">
+      <c r="D339">
+        <v>337</v>
+      </c>
+      <c r="E339">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="4:5">
+      <c r="D340">
+        <v>338</v>
+      </c>
+      <c r="E340">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="4:5">
+      <c r="D341">
+        <v>339</v>
+      </c>
+      <c r="E341">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="4:5">
+      <c r="D342">
+        <v>340</v>
+      </c>
+      <c r="E342">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="4:5">
+      <c r="D343">
+        <v>341</v>
+      </c>
+      <c r="E343">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="4:5">
+      <c r="D344">
+        <v>342</v>
+      </c>
+      <c r="E344">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="4:5">
+      <c r="D345">
+        <v>343</v>
+      </c>
+      <c r="E345">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="4:5">
+      <c r="D346">
+        <v>344</v>
+      </c>
+      <c r="E346">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="4:5">
+      <c r="D347">
+        <v>345</v>
+      </c>
+      <c r="E347">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="4:5">
+      <c r="D348">
+        <v>346</v>
+      </c>
+      <c r="E348">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="4:5">
+      <c r="D349">
+        <v>347</v>
+      </c>
+      <c r="E349">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="4:5">
+      <c r="D350">
+        <v>348</v>
+      </c>
+      <c r="E350">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="4:5">
+      <c r="D351">
+        <v>349</v>
+      </c>
+      <c r="E351">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="4:5">
+      <c r="D352">
+        <v>350</v>
+      </c>
+      <c r="E352">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="4:5">
+      <c r="D353">
+        <v>351</v>
+      </c>
+      <c r="E353">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="4:5">
+      <c r="D354">
+        <v>352</v>
+      </c>
+      <c r="E354">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="4:5">
+      <c r="D355">
+        <v>353</v>
+      </c>
+      <c r="E355">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="4:5">
+      <c r="D356">
+        <v>354</v>
+      </c>
+      <c r="E356">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="4:5">
+      <c r="D357">
+        <v>355</v>
+      </c>
+      <c r="E357">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="4:5">
+      <c r="D358">
+        <v>356</v>
+      </c>
+      <c r="E358">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="4:5">
+      <c r="D359">
+        <v>357</v>
+      </c>
+      <c r="E359">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="4:5">
+      <c r="D360">
+        <v>358</v>
+      </c>
+      <c r="E360">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="4:5">
+      <c r="D361">
+        <v>359</v>
+      </c>
+      <c r="E361">
+        <f>IF(ABS(ABS(ROW()-C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-C3-2-180)-180)),0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -17,13 +17,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
+    <t>Chart Title</t>
+  </si>
+  <si>
     <t>Dial Colors</t>
   </si>
   <si>
     <t>Needle</t>
-  </si>
-  <si>
-    <t>Chart Title</t>
   </si>
 </sst>
 </file>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="UTF-8" standalone="yes"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><c:lang val="en-US"/><c:chart><c:plotArea><c:layout/><c:doughnutChart><c:varyColors val="1"/><c:ser><c:idx val="0"/><c:order val="0"/><c:dPt><c:idx val="0"/><c:spPr><a:solidFill><a:srgbClr val="FC7613"/></a:solidFill></c:spPr></c:dPt><c:dPt><c:idx val="1"/><c:spPr><a:solidFill><a:srgbClr val="FFD641"/></a:solidFill></c:spPr></c:dPt><c:dPt><c:idx val="2"/><c:spPr><a:solidFill><a:srgbClr val="B6C94C"/></a:solidFill></c:spPr></c:dPt><c:dPt><c:idx val="3"/><c:spPr><a:noFill/></c:spPr></c:dPt><c:dPt><c:idx val="4"/><c:spPr><a:noFill/></c:spPr></c:dPt><c:dPt><c:idx val="5"/><c:spPr><a:noFill/></c:spPr></c:dPt><c:val><c:numRef><c:f>Sheet1!$A2:$A$7</c:f><c:numCache><c:formatCode>General</c:formatCode><c:ptCount val="6"/><c:pt idx="0"><c:v>60</c:v></c:pt><c:pt idx="1"><c:v>60</c:v></c:pt><c:pt idx="2"><c:v>60</c:v></c:pt><c:pt idx="3"><c:v>60</c:v></c:pt><c:pt idx="4"><c:v>60</c:v></c:pt><c:pt idx="5"><c:v>60</c:v></c:pt></c:numCache></c:numRef></c:val></c:ser><c:firstSliceAng val="270"/></c:doughChart></c:plotArea><c:legend><c:legendPos val="r"/><c:layout/><c:txPr><a:bodyPr/><a:lstStyle/><a:p><a:pPr rtl="0"><a:defRPr/></a:pPr><a:endParaRPr lang="en-US"/></a:p></c:txPr></c:legend><c:plotVisOnly val="1"/></c:chart><c:printSettings><c:headerFooter/><c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/><c:pageSetup/></c:printSettings></c:chartSpace>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"><c:lang val="en-US"/><c:chart><c:plotArea><c:layout/><c:doughnutChart><c:varyColors val="1"/><c:ser><c:idx val="0"/><c:order val="0"/><c:dPt><c:idx val="0"/><c:spPr><a:solidFill><a:srgbClr val="FC7613"/></a:solidFill></c:spPr></c:dPt><c:dPt><c:idx val="1"/><c:spPr><a:solidFill><a:srgbClr val="FFD641"/></a:solidFill></c:spPr></c:dPt><c:dPt><c:idx val="2"/><c:spPr><a:solidFill><a:srgbClr val="B6C94C"/></a:solidFill></c:spPr></c:dPt><c:dPt><c:idx val="3"/><c:spPr><a:noFill/></c:spPr></c:dPt><c:dPt><c:idx val="4"/><c:spPr><a:noFill/></c:spPr></c:dPt><c:dPt><c:idx val="5"/><c:spPr><a:noFill/></c:spPr></c:dPt><c:val><c:numRef><c:f>Sheet2!$A2:$A$7</c:f><c:numCache><c:formatCode>General</c:formatCode><c:ptCount val="6"/><c:pt idx="0"><c:v>60</c:v></c:pt><c:pt idx="1"><c:v>60</c:v></c:pt><c:pt idx="2"><c:v>60</c:v></c:pt><c:pt idx="3"><c:v>60</c:v></c:pt><c:pt idx="4"><c:v>60</c:v></c:pt><c:pt idx="5"><c:v>60</c:v></c:pt></c:numCache></c:numRef></c:val></c:ser><c:firstSliceAng val="270"/></c:doughChart></c:plotArea><c:legend><c:legendPos val="r"/><c:layout/><c:txPr><a:bodyPr/><a:lstStyle/><a:p><a:pPr rtl="0"><a:defRPr/></a:pPr><a:endParaRPr lang="en-US"/></a:p></c:txPr></c:legend><c:plotVisOnly val="1"/></c:chart><c:printSettings><c:headerFooter/><c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/><c:pageSetup/></c:printSettings></c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2285,15 +2285,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2315,15 +2315,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>-95249</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2631,72 +2631,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2">
-        <v>60</v>
-      </c>
-      <c r="B2">
-        <v>180</v>
-      </c>
-      <c r="C2">
-        <f>$C$3 &amp; "% Share"</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <f>$A$3 &amp; "% Share"</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3">
-        <v>60</v>
-      </c>
-      <c r="B3">
-        <f>((180/200)*(C3+100))-B4</f>
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>60</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>60</v>
-      </c>
-      <c r="B5">
-        <f>360-SUM(B2:B4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2707,144 +2661,184 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D2:E361"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="4:5">
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>60</v>
+      </c>
+      <c r="B2">
+        <v>180</v>
+      </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <f>((180/200)*(Sheet1!A3+100))-B4</f>
+        <v>0</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <f>360-SUM(B2:B4)</f>
+        <v>0</v>
+      </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>60</v>
+      </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>60</v>
+      </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="D13">
         <v>11</v>
       </c>
       <c r="E13">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="D14">
         <v>12</v>
       </c>
       <c r="E14">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="D15">
         <v>13</v>
       </c>
       <c r="E15">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5">
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="D16">
         <v>14</v>
       </c>
       <c r="E16">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2853,7 +2847,7 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2862,7 +2856,7 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2871,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2880,7 +2874,7 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2889,7 +2883,7 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2898,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2907,7 +2901,7 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2916,7 +2910,7 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2925,7 +2919,7 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2934,7 +2928,7 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2943,7 +2937,7 @@
         <v>25</v>
       </c>
       <c r="E27">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2952,7 +2946,7 @@
         <v>26</v>
       </c>
       <c r="E28">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2961,7 +2955,7 @@
         <v>27</v>
       </c>
       <c r="E29">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2970,7 +2964,7 @@
         <v>28</v>
       </c>
       <c r="E30">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2979,7 +2973,7 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2988,7 +2982,7 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2997,7 +2991,7 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3006,7 +3000,7 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3015,7 +3009,7 @@
         <v>33</v>
       </c>
       <c r="E35">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3024,7 +3018,7 @@
         <v>34</v>
       </c>
       <c r="E36">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3033,7 +3027,7 @@
         <v>35</v>
       </c>
       <c r="E37">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3042,7 +3036,7 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3051,7 +3045,7 @@
         <v>37</v>
       </c>
       <c r="E39">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3054,7 @@
         <v>38</v>
       </c>
       <c r="E40">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3069,7 +3063,7 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3078,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="E42">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3087,7 +3081,7 @@
         <v>41</v>
       </c>
       <c r="E43">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3096,7 +3090,7 @@
         <v>42</v>
       </c>
       <c r="E44">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3105,7 +3099,7 @@
         <v>43</v>
       </c>
       <c r="E45">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3114,7 +3108,7 @@
         <v>44</v>
       </c>
       <c r="E46">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3123,7 +3117,7 @@
         <v>45</v>
       </c>
       <c r="E47">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3132,7 +3126,7 @@
         <v>46</v>
       </c>
       <c r="E48">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3141,7 +3135,7 @@
         <v>47</v>
       </c>
       <c r="E49">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3150,7 +3144,7 @@
         <v>48</v>
       </c>
       <c r="E50">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3159,7 +3153,7 @@
         <v>49</v>
       </c>
       <c r="E51">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3168,7 +3162,7 @@
         <v>50</v>
       </c>
       <c r="E52">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3177,7 +3171,7 @@
         <v>51</v>
       </c>
       <c r="E53">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3186,7 +3180,7 @@
         <v>52</v>
       </c>
       <c r="E54">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3195,7 +3189,7 @@
         <v>53</v>
       </c>
       <c r="E55">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3204,7 +3198,7 @@
         <v>54</v>
       </c>
       <c r="E56">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3213,7 +3207,7 @@
         <v>55</v>
       </c>
       <c r="E57">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3222,7 +3216,7 @@
         <v>56</v>
       </c>
       <c r="E58">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3231,7 +3225,7 @@
         <v>57</v>
       </c>
       <c r="E59">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3240,7 +3234,7 @@
         <v>58</v>
       </c>
       <c r="E60">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3249,7 +3243,7 @@
         <v>59</v>
       </c>
       <c r="E61">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3258,7 +3252,7 @@
         <v>60</v>
       </c>
       <c r="E62">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3267,7 +3261,7 @@
         <v>61</v>
       </c>
       <c r="E63">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3276,7 +3270,7 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3285,7 +3279,7 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3294,7 +3288,7 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3303,7 +3297,7 @@
         <v>65</v>
       </c>
       <c r="E67">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3312,7 +3306,7 @@
         <v>66</v>
       </c>
       <c r="E68">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3321,7 +3315,7 @@
         <v>67</v>
       </c>
       <c r="E69">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3330,7 +3324,7 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3339,7 +3333,7 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3348,7 +3342,7 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3357,7 +3351,7 @@
         <v>71</v>
       </c>
       <c r="E73">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3366,7 +3360,7 @@
         <v>72</v>
       </c>
       <c r="E74">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3375,7 +3369,7 @@
         <v>73</v>
       </c>
       <c r="E75">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3384,7 +3378,7 @@
         <v>74</v>
       </c>
       <c r="E76">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3393,7 +3387,7 @@
         <v>75</v>
       </c>
       <c r="E77">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3402,7 +3396,7 @@
         <v>76</v>
       </c>
       <c r="E78">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3411,7 +3405,7 @@
         <v>77</v>
       </c>
       <c r="E79">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3420,7 +3414,7 @@
         <v>78</v>
       </c>
       <c r="E80">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3429,7 +3423,7 @@
         <v>79</v>
       </c>
       <c r="E81">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3438,7 +3432,7 @@
         <v>80</v>
       </c>
       <c r="E82">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3447,7 +3441,7 @@
         <v>81</v>
       </c>
       <c r="E83">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3456,7 +3450,7 @@
         <v>82</v>
       </c>
       <c r="E84">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3465,7 +3459,7 @@
         <v>83</v>
       </c>
       <c r="E85">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3474,7 +3468,7 @@
         <v>84</v>
       </c>
       <c r="E86">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3483,7 +3477,7 @@
         <v>85</v>
       </c>
       <c r="E87">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3492,7 +3486,7 @@
         <v>86</v>
       </c>
       <c r="E88">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3501,7 +3495,7 @@
         <v>87</v>
       </c>
       <c r="E89">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3510,7 +3504,7 @@
         <v>88</v>
       </c>
       <c r="E90">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3519,7 +3513,7 @@
         <v>89</v>
       </c>
       <c r="E91">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3522,7 @@
         <v>90</v>
       </c>
       <c r="E92">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3537,7 +3531,7 @@
         <v>91</v>
       </c>
       <c r="E93">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3546,7 +3540,7 @@
         <v>92</v>
       </c>
       <c r="E94">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3555,7 +3549,7 @@
         <v>93</v>
       </c>
       <c r="E95">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3564,7 +3558,7 @@
         <v>94</v>
       </c>
       <c r="E96">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3573,7 +3567,7 @@
         <v>95</v>
       </c>
       <c r="E97">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3582,7 +3576,7 @@
         <v>96</v>
       </c>
       <c r="E98">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3591,7 +3585,7 @@
         <v>97</v>
       </c>
       <c r="E99">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3600,7 +3594,7 @@
         <v>98</v>
       </c>
       <c r="E100">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3609,7 +3603,7 @@
         <v>99</v>
       </c>
       <c r="E101">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3618,7 +3612,7 @@
         <v>100</v>
       </c>
       <c r="E102">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3627,7 +3621,7 @@
         <v>101</v>
       </c>
       <c r="E103">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3636,7 +3630,7 @@
         <v>102</v>
       </c>
       <c r="E104">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3645,7 +3639,7 @@
         <v>103</v>
       </c>
       <c r="E105">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3654,7 +3648,7 @@
         <v>104</v>
       </c>
       <c r="E106">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3663,7 +3657,7 @@
         <v>105</v>
       </c>
       <c r="E107">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3672,7 +3666,7 @@
         <v>106</v>
       </c>
       <c r="E108">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3681,7 +3675,7 @@
         <v>107</v>
       </c>
       <c r="E109">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3690,7 +3684,7 @@
         <v>108</v>
       </c>
       <c r="E110">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3699,7 +3693,7 @@
         <v>109</v>
       </c>
       <c r="E111">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3708,7 +3702,7 @@
         <v>110</v>
       </c>
       <c r="E112">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3717,7 +3711,7 @@
         <v>111</v>
       </c>
       <c r="E113">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3726,7 +3720,7 @@
         <v>112</v>
       </c>
       <c r="E114">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3735,7 +3729,7 @@
         <v>113</v>
       </c>
       <c r="E115">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3744,7 +3738,7 @@
         <v>114</v>
       </c>
       <c r="E116">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3753,7 +3747,7 @@
         <v>115</v>
       </c>
       <c r="E117">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3762,7 +3756,7 @@
         <v>116</v>
       </c>
       <c r="E118">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3771,7 +3765,7 @@
         <v>117</v>
       </c>
       <c r="E119">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3780,7 +3774,7 @@
         <v>118</v>
       </c>
       <c r="E120">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3789,7 +3783,7 @@
         <v>119</v>
       </c>
       <c r="E121">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3798,7 +3792,7 @@
         <v>120</v>
       </c>
       <c r="E122">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3807,7 +3801,7 @@
         <v>121</v>
       </c>
       <c r="E123">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3816,7 +3810,7 @@
         <v>122</v>
       </c>
       <c r="E124">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3825,7 +3819,7 @@
         <v>123</v>
       </c>
       <c r="E125">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3834,7 +3828,7 @@
         <v>124</v>
       </c>
       <c r="E126">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3843,7 +3837,7 @@
         <v>125</v>
       </c>
       <c r="E127">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3852,7 +3846,7 @@
         <v>126</v>
       </c>
       <c r="E128">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3861,7 +3855,7 @@
         <v>127</v>
       </c>
       <c r="E129">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3870,7 +3864,7 @@
         <v>128</v>
       </c>
       <c r="E130">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3879,7 +3873,7 @@
         <v>129</v>
       </c>
       <c r="E131">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3888,7 +3882,7 @@
         <v>130</v>
       </c>
       <c r="E132">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3897,7 +3891,7 @@
         <v>131</v>
       </c>
       <c r="E133">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3906,7 +3900,7 @@
         <v>132</v>
       </c>
       <c r="E134">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3915,7 +3909,7 @@
         <v>133</v>
       </c>
       <c r="E135">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3924,7 +3918,7 @@
         <v>134</v>
       </c>
       <c r="E136">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3933,7 +3927,7 @@
         <v>135</v>
       </c>
       <c r="E137">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3942,7 +3936,7 @@
         <v>136</v>
       </c>
       <c r="E138">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3951,7 +3945,7 @@
         <v>137</v>
       </c>
       <c r="E139">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3960,7 +3954,7 @@
         <v>138</v>
       </c>
       <c r="E140">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3969,7 +3963,7 @@
         <v>139</v>
       </c>
       <c r="E141">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3978,7 +3972,7 @@
         <v>140</v>
       </c>
       <c r="E142">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3987,7 +3981,7 @@
         <v>141</v>
       </c>
       <c r="E143">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3996,7 +3990,7 @@
         <v>142</v>
       </c>
       <c r="E144">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4005,7 +3999,7 @@
         <v>143</v>
       </c>
       <c r="E145">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4014,7 +4008,7 @@
         <v>144</v>
       </c>
       <c r="E146">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4023,7 +4017,7 @@
         <v>145</v>
       </c>
       <c r="E147">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4032,7 +4026,7 @@
         <v>146</v>
       </c>
       <c r="E148">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4041,7 +4035,7 @@
         <v>147</v>
       </c>
       <c r="E149">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4050,7 +4044,7 @@
         <v>148</v>
       </c>
       <c r="E150">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4059,7 +4053,7 @@
         <v>149</v>
       </c>
       <c r="E151">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4068,7 +4062,7 @@
         <v>150</v>
       </c>
       <c r="E152">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4077,7 +4071,7 @@
         <v>151</v>
       </c>
       <c r="E153">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4086,7 +4080,7 @@
         <v>152</v>
       </c>
       <c r="E154">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4095,7 +4089,7 @@
         <v>153</v>
       </c>
       <c r="E155">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4104,7 +4098,7 @@
         <v>154</v>
       </c>
       <c r="E156">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4113,7 +4107,7 @@
         <v>155</v>
       </c>
       <c r="E157">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4122,7 +4116,7 @@
         <v>156</v>
       </c>
       <c r="E158">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4131,7 +4125,7 @@
         <v>157</v>
       </c>
       <c r="E159">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4140,7 +4134,7 @@
         <v>158</v>
       </c>
       <c r="E160">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4149,7 +4143,7 @@
         <v>159</v>
       </c>
       <c r="E161">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4158,7 +4152,7 @@
         <v>160</v>
       </c>
       <c r="E162">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4167,7 +4161,7 @@
         <v>161</v>
       </c>
       <c r="E163">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4176,7 +4170,7 @@
         <v>162</v>
       </c>
       <c r="E164">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4185,7 +4179,7 @@
         <v>163</v>
       </c>
       <c r="E165">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4194,7 +4188,7 @@
         <v>164</v>
       </c>
       <c r="E166">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4203,7 +4197,7 @@
         <v>165</v>
       </c>
       <c r="E167">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4212,7 +4206,7 @@
         <v>166</v>
       </c>
       <c r="E168">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4221,7 +4215,7 @@
         <v>167</v>
       </c>
       <c r="E169">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4230,7 +4224,7 @@
         <v>168</v>
       </c>
       <c r="E170">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4239,7 +4233,7 @@
         <v>169</v>
       </c>
       <c r="E171">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4248,7 +4242,7 @@
         <v>170</v>
       </c>
       <c r="E172">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4257,7 +4251,7 @@
         <v>171</v>
       </c>
       <c r="E173">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4266,7 +4260,7 @@
         <v>172</v>
       </c>
       <c r="E174">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4275,7 +4269,7 @@
         <v>173</v>
       </c>
       <c r="E175">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4284,7 +4278,7 @@
         <v>174</v>
       </c>
       <c r="E176">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4293,7 +4287,7 @@
         <v>175</v>
       </c>
       <c r="E177">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4302,7 +4296,7 @@
         <v>176</v>
       </c>
       <c r="E178">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4311,7 +4305,7 @@
         <v>177</v>
       </c>
       <c r="E179">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4320,7 +4314,7 @@
         <v>178</v>
       </c>
       <c r="E180">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4329,7 +4323,7 @@
         <v>179</v>
       </c>
       <c r="E181">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4338,7 +4332,7 @@
         <v>180</v>
       </c>
       <c r="E182">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4347,7 +4341,7 @@
         <v>181</v>
       </c>
       <c r="E183">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4356,7 +4350,7 @@
         <v>182</v>
       </c>
       <c r="E184">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4365,7 +4359,7 @@
         <v>183</v>
       </c>
       <c r="E185">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4374,7 +4368,7 @@
         <v>184</v>
       </c>
       <c r="E186">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4383,7 +4377,7 @@
         <v>185</v>
       </c>
       <c r="E187">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4392,7 +4386,7 @@
         <v>186</v>
       </c>
       <c r="E188">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4401,7 +4395,7 @@
         <v>187</v>
       </c>
       <c r="E189">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4410,7 +4404,7 @@
         <v>188</v>
       </c>
       <c r="E190">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4419,7 +4413,7 @@
         <v>189</v>
       </c>
       <c r="E191">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4428,7 +4422,7 @@
         <v>190</v>
       </c>
       <c r="E192">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4437,7 +4431,7 @@
         <v>191</v>
       </c>
       <c r="E193">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4446,7 +4440,7 @@
         <v>192</v>
       </c>
       <c r="E194">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4455,7 +4449,7 @@
         <v>193</v>
       </c>
       <c r="E195">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4464,7 +4458,7 @@
         <v>194</v>
       </c>
       <c r="E196">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4473,7 +4467,7 @@
         <v>195</v>
       </c>
       <c r="E197">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4482,7 +4476,7 @@
         <v>196</v>
       </c>
       <c r="E198">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4491,7 +4485,7 @@
         <v>197</v>
       </c>
       <c r="E199">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4500,7 +4494,7 @@
         <v>198</v>
       </c>
       <c r="E200">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4509,7 +4503,7 @@
         <v>199</v>
       </c>
       <c r="E201">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4518,7 +4512,7 @@
         <v>200</v>
       </c>
       <c r="E202">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4527,7 +4521,7 @@
         <v>201</v>
       </c>
       <c r="E203">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4536,7 +4530,7 @@
         <v>202</v>
       </c>
       <c r="E204">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4545,7 +4539,7 @@
         <v>203</v>
       </c>
       <c r="E205">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4554,7 +4548,7 @@
         <v>204</v>
       </c>
       <c r="E206">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4563,7 +4557,7 @@
         <v>205</v>
       </c>
       <c r="E207">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4572,7 +4566,7 @@
         <v>206</v>
       </c>
       <c r="E208">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4581,7 +4575,7 @@
         <v>207</v>
       </c>
       <c r="E209">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4590,7 +4584,7 @@
         <v>208</v>
       </c>
       <c r="E210">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4599,7 +4593,7 @@
         <v>209</v>
       </c>
       <c r="E211">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4608,7 +4602,7 @@
         <v>210</v>
       </c>
       <c r="E212">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4617,7 +4611,7 @@
         <v>211</v>
       </c>
       <c r="E213">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4626,7 +4620,7 @@
         <v>212</v>
       </c>
       <c r="E214">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4635,7 +4629,7 @@
         <v>213</v>
       </c>
       <c r="E215">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4644,7 +4638,7 @@
         <v>214</v>
       </c>
       <c r="E216">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4653,7 +4647,7 @@
         <v>215</v>
       </c>
       <c r="E217">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4662,7 +4656,7 @@
         <v>216</v>
       </c>
       <c r="E218">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4671,7 +4665,7 @@
         <v>217</v>
       </c>
       <c r="E219">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4680,7 +4674,7 @@
         <v>218</v>
       </c>
       <c r="E220">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4689,7 +4683,7 @@
         <v>219</v>
       </c>
       <c r="E221">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4698,7 +4692,7 @@
         <v>220</v>
       </c>
       <c r="E222">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4707,7 +4701,7 @@
         <v>221</v>
       </c>
       <c r="E223">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4716,7 +4710,7 @@
         <v>222</v>
       </c>
       <c r="E224">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4725,7 +4719,7 @@
         <v>223</v>
       </c>
       <c r="E225">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4734,7 +4728,7 @@
         <v>224</v>
       </c>
       <c r="E226">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4743,7 +4737,7 @@
         <v>225</v>
       </c>
       <c r="E227">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4752,7 +4746,7 @@
         <v>226</v>
       </c>
       <c r="E228">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4761,7 +4755,7 @@
         <v>227</v>
       </c>
       <c r="E229">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4770,7 +4764,7 @@
         <v>228</v>
       </c>
       <c r="E230">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4779,7 +4773,7 @@
         <v>229</v>
       </c>
       <c r="E231">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4788,7 +4782,7 @@
         <v>230</v>
       </c>
       <c r="E232">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4797,7 +4791,7 @@
         <v>231</v>
       </c>
       <c r="E233">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4806,7 +4800,7 @@
         <v>232</v>
       </c>
       <c r="E234">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4815,7 +4809,7 @@
         <v>233</v>
       </c>
       <c r="E235">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4824,7 +4818,7 @@
         <v>234</v>
       </c>
       <c r="E236">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4833,7 +4827,7 @@
         <v>235</v>
       </c>
       <c r="E237">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4842,7 +4836,7 @@
         <v>236</v>
       </c>
       <c r="E238">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4851,7 +4845,7 @@
         <v>237</v>
       </c>
       <c r="E239">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4860,7 +4854,7 @@
         <v>238</v>
       </c>
       <c r="E240">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4869,7 +4863,7 @@
         <v>239</v>
       </c>
       <c r="E241">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4878,7 +4872,7 @@
         <v>240</v>
       </c>
       <c r="E242">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4887,7 +4881,7 @@
         <v>241</v>
       </c>
       <c r="E243">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4896,7 +4890,7 @@
         <v>242</v>
       </c>
       <c r="E244">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4905,7 +4899,7 @@
         <v>243</v>
       </c>
       <c r="E245">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4914,7 +4908,7 @@
         <v>244</v>
       </c>
       <c r="E246">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4923,7 +4917,7 @@
         <v>245</v>
       </c>
       <c r="E247">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4932,7 +4926,7 @@
         <v>246</v>
       </c>
       <c r="E248">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4941,7 +4935,7 @@
         <v>247</v>
       </c>
       <c r="E249">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4950,7 +4944,7 @@
         <v>248</v>
       </c>
       <c r="E250">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4959,7 +4953,7 @@
         <v>249</v>
       </c>
       <c r="E251">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4968,7 +4962,7 @@
         <v>250</v>
       </c>
       <c r="E252">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4977,7 +4971,7 @@
         <v>251</v>
       </c>
       <c r="E253">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4986,7 +4980,7 @@
         <v>252</v>
       </c>
       <c r="E254">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4995,7 +4989,7 @@
         <v>253</v>
       </c>
       <c r="E255">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5004,7 +4998,7 @@
         <v>254</v>
       </c>
       <c r="E256">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5013,7 +5007,7 @@
         <v>255</v>
       </c>
       <c r="E257">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5022,7 +5016,7 @@
         <v>256</v>
       </c>
       <c r="E258">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5031,7 +5025,7 @@
         <v>257</v>
       </c>
       <c r="E259">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5040,7 +5034,7 @@
         <v>258</v>
       </c>
       <c r="E260">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5049,7 +5043,7 @@
         <v>259</v>
       </c>
       <c r="E261">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5058,7 +5052,7 @@
         <v>260</v>
       </c>
       <c r="E262">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5067,7 +5061,7 @@
         <v>261</v>
       </c>
       <c r="E263">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5076,7 +5070,7 @@
         <v>262</v>
       </c>
       <c r="E264">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5085,7 +5079,7 @@
         <v>263</v>
       </c>
       <c r="E265">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5094,7 +5088,7 @@
         <v>264</v>
       </c>
       <c r="E266">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5103,7 +5097,7 @@
         <v>265</v>
       </c>
       <c r="E267">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5112,7 +5106,7 @@
         <v>266</v>
       </c>
       <c r="E268">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5121,7 +5115,7 @@
         <v>267</v>
       </c>
       <c r="E269">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5130,7 +5124,7 @@
         <v>268</v>
       </c>
       <c r="E270">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5139,7 +5133,7 @@
         <v>269</v>
       </c>
       <c r="E271">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5148,7 +5142,7 @@
         <v>270</v>
       </c>
       <c r="E272">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5157,7 +5151,7 @@
         <v>271</v>
       </c>
       <c r="E273">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5166,7 +5160,7 @@
         <v>272</v>
       </c>
       <c r="E274">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5175,7 +5169,7 @@
         <v>273</v>
       </c>
       <c r="E275">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5184,7 +5178,7 @@
         <v>274</v>
       </c>
       <c r="E276">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5193,7 +5187,7 @@
         <v>275</v>
       </c>
       <c r="E277">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5202,7 +5196,7 @@
         <v>276</v>
       </c>
       <c r="E278">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5211,7 +5205,7 @@
         <v>277</v>
       </c>
       <c r="E279">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5220,7 +5214,7 @@
         <v>278</v>
       </c>
       <c r="E280">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5229,7 +5223,7 @@
         <v>279</v>
       </c>
       <c r="E281">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5238,7 +5232,7 @@
         <v>280</v>
       </c>
       <c r="E282">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5247,7 +5241,7 @@
         <v>281</v>
       </c>
       <c r="E283">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5256,7 +5250,7 @@
         <v>282</v>
       </c>
       <c r="E284">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5265,7 +5259,7 @@
         <v>283</v>
       </c>
       <c r="E285">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5274,7 +5268,7 @@
         <v>284</v>
       </c>
       <c r="E286">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5283,7 +5277,7 @@
         <v>285</v>
       </c>
       <c r="E287">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5292,7 +5286,7 @@
         <v>286</v>
       </c>
       <c r="E288">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5301,7 +5295,7 @@
         <v>287</v>
       </c>
       <c r="E289">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5310,7 +5304,7 @@
         <v>288</v>
       </c>
       <c r="E290">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5319,7 +5313,7 @@
         <v>289</v>
       </c>
       <c r="E291">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5328,7 +5322,7 @@
         <v>290</v>
       </c>
       <c r="E292">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5337,7 +5331,7 @@
         <v>291</v>
       </c>
       <c r="E293">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5346,7 +5340,7 @@
         <v>292</v>
       </c>
       <c r="E294">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5355,7 +5349,7 @@
         <v>293</v>
       </c>
       <c r="E295">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5364,7 +5358,7 @@
         <v>294</v>
       </c>
       <c r="E296">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5373,7 +5367,7 @@
         <v>295</v>
       </c>
       <c r="E297">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5382,7 +5376,7 @@
         <v>296</v>
       </c>
       <c r="E298">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5391,7 +5385,7 @@
         <v>297</v>
       </c>
       <c r="E299">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5400,7 +5394,7 @@
         <v>298</v>
       </c>
       <c r="E300">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5409,7 +5403,7 @@
         <v>299</v>
       </c>
       <c r="E301">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5418,7 +5412,7 @@
         <v>300</v>
       </c>
       <c r="E302">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5427,7 +5421,7 @@
         <v>301</v>
       </c>
       <c r="E303">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5436,7 +5430,7 @@
         <v>302</v>
       </c>
       <c r="E304">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5445,7 +5439,7 @@
         <v>303</v>
       </c>
       <c r="E305">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5454,7 +5448,7 @@
         <v>304</v>
       </c>
       <c r="E306">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5463,7 +5457,7 @@
         <v>305</v>
       </c>
       <c r="E307">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5472,7 +5466,7 @@
         <v>306</v>
       </c>
       <c r="E308">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5481,7 +5475,7 @@
         <v>307</v>
       </c>
       <c r="E309">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5490,7 +5484,7 @@
         <v>308</v>
       </c>
       <c r="E310">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5499,7 +5493,7 @@
         <v>309</v>
       </c>
       <c r="E311">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5508,7 +5502,7 @@
         <v>310</v>
       </c>
       <c r="E312">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5517,7 +5511,7 @@
         <v>311</v>
       </c>
       <c r="E313">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5526,7 +5520,7 @@
         <v>312</v>
       </c>
       <c r="E314">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5535,7 +5529,7 @@
         <v>313</v>
       </c>
       <c r="E315">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5544,7 +5538,7 @@
         <v>314</v>
       </c>
       <c r="E316">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5553,7 +5547,7 @@
         <v>315</v>
       </c>
       <c r="E317">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5562,7 +5556,7 @@
         <v>316</v>
       </c>
       <c r="E318">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5571,7 +5565,7 @@
         <v>317</v>
       </c>
       <c r="E319">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5580,7 +5574,7 @@
         <v>318</v>
       </c>
       <c r="E320">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5589,7 +5583,7 @@
         <v>319</v>
       </c>
       <c r="E321">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5598,7 +5592,7 @@
         <v>320</v>
       </c>
       <c r="E322">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5607,7 +5601,7 @@
         <v>321</v>
       </c>
       <c r="E323">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5616,7 +5610,7 @@
         <v>322</v>
       </c>
       <c r="E324">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5625,7 +5619,7 @@
         <v>323</v>
       </c>
       <c r="E325">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5634,7 +5628,7 @@
         <v>324</v>
       </c>
       <c r="E326">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5643,7 +5637,7 @@
         <v>325</v>
       </c>
       <c r="E327">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5652,7 +5646,7 @@
         <v>326</v>
       </c>
       <c r="E328">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5661,7 +5655,7 @@
         <v>327</v>
       </c>
       <c r="E329">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5670,7 +5664,7 @@
         <v>328</v>
       </c>
       <c r="E330">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5679,7 +5673,7 @@
         <v>329</v>
       </c>
       <c r="E331">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5688,7 +5682,7 @@
         <v>330</v>
       </c>
       <c r="E332">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5697,7 +5691,7 @@
         <v>331</v>
       </c>
       <c r="E333">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5706,7 +5700,7 @@
         <v>332</v>
       </c>
       <c r="E334">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5715,7 +5709,7 @@
         <v>333</v>
       </c>
       <c r="E335">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5724,7 +5718,7 @@
         <v>334</v>
       </c>
       <c r="E336">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5733,7 +5727,7 @@
         <v>335</v>
       </c>
       <c r="E337">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5742,7 +5736,7 @@
         <v>336</v>
       </c>
       <c r="E338">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5751,7 +5745,7 @@
         <v>337</v>
       </c>
       <c r="E339">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5760,7 +5754,7 @@
         <v>338</v>
       </c>
       <c r="E340">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5769,7 +5763,7 @@
         <v>339</v>
       </c>
       <c r="E341">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5778,7 +5772,7 @@
         <v>340</v>
       </c>
       <c r="E342">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5787,7 +5781,7 @@
         <v>341</v>
       </c>
       <c r="E343">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5796,7 +5790,7 @@
         <v>342</v>
       </c>
       <c r="E344">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5805,7 +5799,7 @@
         <v>343</v>
       </c>
       <c r="E345">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5814,7 +5808,7 @@
         <v>344</v>
       </c>
       <c r="E346">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5823,7 +5817,7 @@
         <v>345</v>
       </c>
       <c r="E347">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5832,7 +5826,7 @@
         <v>346</v>
       </c>
       <c r="E348">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5841,7 +5835,7 @@
         <v>347</v>
       </c>
       <c r="E349">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5850,7 +5844,7 @@
         <v>348</v>
       </c>
       <c r="E350">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5859,7 +5853,7 @@
         <v>349</v>
       </c>
       <c r="E351">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5868,7 +5862,7 @@
         <v>350</v>
       </c>
       <c r="E352">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5877,7 +5871,7 @@
         <v>351</v>
       </c>
       <c r="E353">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5886,7 +5880,7 @@
         <v>352</v>
       </c>
       <c r="E354">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5895,7 +5889,7 @@
         <v>353</v>
       </c>
       <c r="E355">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5904,7 +5898,7 @@
         <v>354</v>
       </c>
       <c r="E356">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5913,7 +5907,7 @@
         <v>355</v>
       </c>
       <c r="E357">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5922,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="E358">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5931,7 +5925,7 @@
         <v>357</v>
       </c>
       <c r="E359">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5940,7 +5934,7 @@
         <v>358</v>
       </c>
       <c r="E360">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -5949,7 +5943,7 @@
         <v>359</v>
       </c>
       <c r="E361">
-        <f>IF(ABS(ABS(ROW()-Sheet1!C3-2-180)-180)&lt;10,8-(0.25*ABS(ABS(ROW()-Sheet1!C3-2-180)-180)),0)</f>
+        <f>IF(ABS(ABS(ROW()-Sheet1!A3-2-180)-180)&lt;15,8-(0.4*ABS(ABS(ROW()-Sheet1!A3-2-180)-180)),0)</f>
         <v>0</v>
       </c>
     </row>

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -15,15 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Chart Title</t>
   </si>
   <si>
     <t>Dial Colors</t>
-  </si>
-  <si>
-    <t>Needle</t>
   </si>
 </sst>
 </file>
@@ -2671,17 +2668,11 @@
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <v>60</v>
       </c>
-      <c r="B2">
-        <v>180</v>
-      </c>
       <c r="D2">
         <v>0</v>
       </c>
@@ -2694,10 +2685,6 @@
       <c r="A3">
         <v>60</v>
       </c>
-      <c r="B3">
-        <f>((180/200)*(Sheet1!A3+100))-B4</f>
-        <v>0</v>
-      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -2710,9 +2697,6 @@
       <c r="A4">
         <v>60</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
       <c r="D4">
         <v>2</v>
       </c>
@@ -2724,10 +2708,6 @@
     <row r="5" spans="1:5">
       <c r="A5">
         <v>60</v>
-      </c>
-      <c r="B5">
-        <f>360-SUM(B2:B4)</f>
-        <v>0</v>
       </c>
       <c r="D5">
         <v>3</v>
